--- a/code_data/CA_Exports_Imports-onetable.xlsx
+++ b/code_data/CA_Exports_Imports-onetable.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allegrasaggese/Documents/GitHub/econ221_fall2025/code_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F329EB-5F22-7E45-B126-AF481B6037DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A663575-A951-A24D-A5EE-A0D0CCCBF50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="24360" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="24360" windowHeight="17020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CA Exports Imports Annual" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Karina Villalpando - Personal View" guid="{DD2A8D8A-D13E-4C74-90E3-719DE4611D5A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-4" yWindow="-4" windowWidth="1370" windowHeight="814" activeSheetId="1"/>
     <customWorkbookView name="Villalpando, Karina - Personal View" guid="{6EEAC7C3-6FD8-4EC1-902D-EEDDA6398FAC}" mergeInterval="0" personalView="1" xWindow="1210" yWindow="40" windowWidth="971" windowHeight="1113" activeSheetId="1"/>
-    <customWorkbookView name="Karina Villalpando - Personal View" guid="{DD2A8D8A-D13E-4C74-90E3-719DE4611D5A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-4" yWindow="-4" windowWidth="1370" windowHeight="814" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>EXPORT AND IMPORT TOTALS FOR CALIFORNIA</t>
   </si>
@@ -76,6 +77,12 @@
   </si>
   <si>
     <t>Next update: February 2025.</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>exports_mill_dollars</t>
   </si>
 </sst>
 </file>
@@ -604,7 +611,7 @@
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -665,6 +672,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1084,11 +1103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -1701,7 +1720,232 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E2F178-45D2-7140-BE87-3864477FE9BA}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="31">
+        <v>2002</v>
+      </c>
+      <c r="B2" s="28">
+        <v>92177.510781999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
+        <v>2003</v>
+      </c>
+      <c r="B3" s="28">
+        <v>93906.331502999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
+        <v>2004</v>
+      </c>
+      <c r="B4" s="28">
+        <v>110143.572288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="28">
+        <v>116689.90180399999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="28">
+        <v>127770.79381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
+        <v>2007</v>
+      </c>
+      <c r="B7" s="28">
+        <v>134318.90676099999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="28">
+        <v>144805.748349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
+        <v>2009</v>
+      </c>
+      <c r="B9" s="28">
+        <v>120079.965765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="31">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="28">
+        <v>143208.226608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="31">
+        <v>2011</v>
+      </c>
+      <c r="B11" s="28">
+        <v>159421.39388600001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="28">
+        <v>161757.31064800001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="28">
+        <v>168191.55155999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="28">
+        <v>173868.58786199999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="28">
+        <v>165360.37779999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="28">
+        <v>163260.62358499999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="29">
+        <v>171920.43058499999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="29">
+        <v>178175.23564699999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="31">
+        <v>2019</v>
+      </c>
+      <c r="B19" s="29">
+        <v>173754.50772699999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="31">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="29">
+        <v>155919.092901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="31">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="29">
+        <v>174859.93087000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="31">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="29">
+        <v>186238.29135099999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="32">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="30">
+        <v>178717.23368199999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="50b4d822-f145-40b1-b502-720eef342d4b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4ca643c4-7cca-4cf7-9b44-d1a48358ecdb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100133903503F928A40A5C7040A15395DCD" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17c0b1408c4bddba4a326b4ac96a64fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ca643c4-7cca-4cf7-9b44-d1a48358ecdb" xmlns:ns3="50b4d822-f145-40b1-b502-720eef342d4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22a005c68d502a2d0a7d1126f2e9c260" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1947,29 +2191,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA0FB38-362A-485A-A86F-693D94A1ACB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="50b4d822-f145-40b1-b502-720eef342d4b"/>
+    <ds:schemaRef ds:uri="4ca643c4-7cca-4cf7-9b44-d1a48358ecdb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="50b4d822-f145-40b1-b502-720eef342d4b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4ca643c4-7cca-4cf7-9b44-d1a48358ecdb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99696D85-630E-4DE9-9743-2124237515A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB33EAF2-D161-44E2-BD8D-94088858D1C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1987,24 +2229,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99696D85-630E-4DE9-9743-2124237515A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA0FB38-362A-485A-A86F-693D94A1ACB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="50b4d822-f145-40b1-b502-720eef342d4b"/>
-    <ds:schemaRef ds:uri="4ca643c4-7cca-4cf7-9b44-d1a48358ecdb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>